--- a/inputs/219007_stage_storage.xlsx
+++ b/inputs/219007_stage_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\2019\219007 SCVHA Coyote Ridge Springs and Seeps\python pond model\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\218136\python_repo\Pond-IT\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28303CD8-50F3-48C8-94BC-2CB7E3E2C39C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6821CC0-7E9E-49F3-8F93-583ED807989B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="27075" windowHeight="16440" tabRatio="835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1260" windowWidth="23385" windowHeight="14940" tabRatio="835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pond3_bigger" sheetId="29" r:id="rId1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +50,7 @@
     <t>area_sqft</t>
   </si>
   <si>
-    <t>storage_cuft_cum</t>
+    <t>storage_cuft</t>
   </si>
 </sst>
 </file>
@@ -1833,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE6D770-1237-4501-9135-E3CE71211C5C}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2097,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2114,7 +2116,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
@@ -2367,7 +2369,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,7 +2388,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
@@ -2628,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E17627-A90D-4DF2-8EF4-B77A51763C8E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2688,7 +2690,7 @@
         <v>6.8870523415977963E-3</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D9" si="2">E3*43560</f>
+        <f t="shared" ref="D3:D7" si="2">E3*43560</f>
         <v>200</v>
       </c>
       <c r="E3" s="2">
@@ -2744,7 +2746,7 @@
         <v>550</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C9" si="4">B6/43560</f>
+        <f t="shared" ref="C6:C7" si="4">B6/43560</f>
         <v>1.2626262626262626E-2</v>
       </c>
       <c r="D6" s="2">
